--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,10 +49,13 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>excellent</t>
@@ -64,181 +67,166 @@
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>thank</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>husband</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>rice</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
-    <t>cheese</t>
+    <t>bread</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
     <t>pop</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>gr</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>makes</t>
   </si>
   <si>
     <t>bought</t>
@@ -247,9 +235,6 @@
     <t>coffee</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
@@ -262,10 +247,10 @@
     <t>really</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
   </si>
   <si>
     <t>time</t>
@@ -632,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -743,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -751,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.248062015503876</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.9310344827586207</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -793,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,13 +786,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.890625</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -845,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -853,13 +838,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8606811145510835</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L7">
-        <v>556</v>
+        <v>61</v>
       </c>
       <c r="M7">
-        <v>556</v>
+        <v>61</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>90</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +864,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.8478260869565217</v>
+        <v>0.8297213622291022</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>536</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>536</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +890,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7272727272727273</v>
+        <v>0.8</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -923,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -931,13 +916,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7111111111111111</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -949,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -983,13 +968,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6883116883116883</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L12">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M12">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1001,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1009,13 +994,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.647887323943662</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1027,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1035,13 +1020,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6470588235294118</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1053,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1061,13 +1046,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6438356164383562</v>
+        <v>0.6338983050847458</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1079,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1087,13 +1072,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6338983050847458</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="L16">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1105,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1113,13 +1098,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6332263242375602</v>
+        <v>0.6324237560192616</v>
       </c>
       <c r="L17">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M17">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1131,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1139,13 +1124,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.625</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1157,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1165,13 +1150,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6153846153846154</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1183,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1191,13 +1176,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.6140350877192983</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1209,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1217,13 +1202,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.6122448979591837</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1235,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1243,13 +1228,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5846153846153846</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1269,13 +1254,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5833333333333334</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1287,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1295,13 +1280,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5828571428571429</v>
+        <v>0.59375</v>
       </c>
       <c r="L24">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1313,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1321,13 +1306,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5694444444444444</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L25">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1339,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1347,13 +1332,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.5396825396825397</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1365,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1373,13 +1358,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.5384615384615384</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1391,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1399,13 +1384,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.5294117647058824</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1417,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1425,13 +1410,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.5285714285714286</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1443,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1451,13 +1436,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.5096153846153846</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1469,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1477,13 +1462,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.4871794871794872</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L31">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M31">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1495,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1503,13 +1488,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.4730538922155689</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L32">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1521,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1529,13 +1514,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.4586466165413534</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L33">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1547,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1555,13 +1540,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.4457831325301205</v>
+        <v>0.4730538922155689</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1573,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1581,13 +1566,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.4320987654320987</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1599,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1607,13 +1592,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.43</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L36">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="M36">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1625,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1633,13 +1618,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.4285714285714285</v>
+        <v>0.41</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1651,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1659,13 +1644,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.4098360655737705</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1677,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1685,13 +1670,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.4078947368421053</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L39">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1703,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1711,13 +1696,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.4032258064516129</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1729,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1737,13 +1722,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.3815789473684211</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="L41">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="M41">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1755,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>47</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1763,13 +1748,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.3734939759036144</v>
+        <v>0.3700980392156863</v>
       </c>
       <c r="L42">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="M42">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1781,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>104</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1789,13 +1774,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.3424124513618677</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L43">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M43">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1807,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1815,13 +1800,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.3383458646616541</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L44">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M44">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1833,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1841,13 +1826,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.3186274509803921</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L45">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1859,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>278</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1867,13 +1852,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.2877697841726619</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L46">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M46">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1885,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1893,13 +1878,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.2772277227722773</v>
+        <v>0.2808219178082192</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1911,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>73</v>
+        <v>525</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1919,13 +1904,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.2727272727272727</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="L48">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M48">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1937,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>152</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1945,13 +1930,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.2671232876712329</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L49">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="M49">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1963,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>535</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1971,13 +1956,13 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.2588235294117647</v>
+        <v>0.2488038277511962</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1989,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>63</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1997,13 +1982,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.25</v>
+        <v>0.232508073196986</v>
       </c>
       <c r="L51">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="M51">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2015,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>81</v>
+        <v>713</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2023,13 +2008,13 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.2380952380952381</v>
+        <v>0.223021582733813</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2041,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2049,13 +2034,13 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.2214765100671141</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="L53">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M53">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2067,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2075,13 +2060,13 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.2163616792249731</v>
+        <v>0.2110091743119266</v>
       </c>
       <c r="L54">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="M54">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2093,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>728</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2101,13 +2086,13 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.2163009404388715</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L55">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M55">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2119,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2127,13 +2112,13 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.2162162162162162</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L56">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M56">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2145,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2153,13 +2138,13 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.2162162162162162</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2171,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2179,13 +2164,13 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.1920529801324503</v>
+        <v>0.1662404092071611</v>
       </c>
       <c r="L58">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="M58">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2197,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>122</v>
+        <v>652</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2205,13 +2190,13 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.1662404092071611</v>
+        <v>0.1602649006622517</v>
       </c>
       <c r="L59">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="M59">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2223,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>652</v>
+        <v>634</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2231,13 +2216,13 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.1655629139072848</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="L60">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="M60">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2249,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>630</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2257,13 +2242,13 @@
         <v>69</v>
       </c>
       <c r="K61">
-        <v>0.1341463414634146</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="L61">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="M61">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2275,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>142</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2283,13 +2268,13 @@
         <v>70</v>
       </c>
       <c r="K62">
-        <v>0.134020618556701</v>
+        <v>0.1143911439114391</v>
       </c>
       <c r="L62">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M62">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2301,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2309,13 +2294,13 @@
         <v>71</v>
       </c>
       <c r="K63">
-        <v>0.1333333333333333</v>
+        <v>0.1119221411192214</v>
       </c>
       <c r="L63">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M63">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2327,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>143</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2335,13 +2320,13 @@
         <v>72</v>
       </c>
       <c r="K64">
-        <v>0.1293800539083558</v>
+        <v>0.09318181818181819</v>
       </c>
       <c r="L64">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M64">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2353,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>323</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2361,25 +2346,25 @@
         <v>73</v>
       </c>
       <c r="K65">
-        <v>0.1287128712871287</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L65">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M65">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N65">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>176</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2387,13 +2372,13 @@
         <v>74</v>
       </c>
       <c r="K66">
-        <v>0.1260504201680672</v>
+        <v>0.08591885441527446</v>
       </c>
       <c r="L66">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M66">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2405,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>208</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2413,13 +2398,13 @@
         <v>75</v>
       </c>
       <c r="K67">
-        <v>0.121654501216545</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="L67">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M67">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2431,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>361</v>
+        <v>417</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2439,13 +2424,13 @@
         <v>76</v>
       </c>
       <c r="K68">
-        <v>0.1113636363636364</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="L68">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M68">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2457,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>391</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2465,25 +2450,25 @@
         <v>77</v>
       </c>
       <c r="K69">
-        <v>0.1107011070110701</v>
+        <v>0.054519368723099</v>
       </c>
       <c r="L69">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M69">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>241</v>
+        <v>659</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2491,25 +2476,25 @@
         <v>78</v>
       </c>
       <c r="K70">
-        <v>0.1037037037037037</v>
+        <v>0.05228758169934641</v>
       </c>
       <c r="L70">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M70">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>242</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2517,13 +2502,13 @@
         <v>79</v>
       </c>
       <c r="K71">
-        <v>0.1002386634844869</v>
+        <v>0.04243542435424354</v>
       </c>
       <c r="L71">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M71">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2535,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>377</v>
+        <v>519</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2543,155 +2528,25 @@
         <v>80</v>
       </c>
       <c r="K72">
-        <v>0.08114035087719298</v>
+        <v>0.02770562770562771</v>
       </c>
       <c r="L72">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M72">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="73" spans="10:17">
-      <c r="J73" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K73">
-        <v>0.07377049180327869</v>
-      </c>
-      <c r="L73">
-        <v>27</v>
-      </c>
-      <c r="M73">
-        <v>27</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="74" spans="10:17">
-      <c r="J74" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K74">
-        <v>0.06349206349206349</v>
-      </c>
-      <c r="L74">
-        <v>68</v>
-      </c>
-      <c r="M74">
-        <v>69</v>
-      </c>
-      <c r="N74">
-        <v>0.99</v>
-      </c>
-      <c r="O74">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P74" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="75" spans="10:17">
-      <c r="J75" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K75">
-        <v>0.06025824964131994</v>
-      </c>
-      <c r="L75">
-        <v>42</v>
-      </c>
-      <c r="M75">
-        <v>43</v>
-      </c>
-      <c r="N75">
-        <v>0.98</v>
-      </c>
-      <c r="O75">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P75" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q75">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="76" spans="10:17">
-      <c r="J76" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K76">
-        <v>0.04428044280442804</v>
-      </c>
-      <c r="L76">
-        <v>24</v>
-      </c>
-      <c r="M76">
-        <v>24</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="77" spans="10:17">
-      <c r="J77" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K77">
-        <v>0.02335640138408305</v>
-      </c>
-      <c r="L77">
-        <v>27</v>
-      </c>
-      <c r="M77">
-        <v>28</v>
-      </c>
-      <c r="N77">
-        <v>0.96</v>
-      </c>
-      <c r="O77">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P77" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q77">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
